--- a/data/comp_lib_oxy.xlsx
+++ b/data/comp_lib_oxy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777EE8F-226E-4940-9EF7-DB97B8E578D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4B035-490D-48AD-A73A-4CA7CFCC5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1560" windowWidth="17895" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="3540" windowWidth="17895" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Название</t>
-  </si>
-  <si>
-    <t>Номер</t>
   </si>
   <si>
     <t>Энтальпия</t>
@@ -424,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +434,7 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -474,195 +471,180 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>128.74</v>
+      </c>
+      <c r="E2">
+        <v>37.478000000000002</v>
+      </c>
+      <c r="F2">
+        <v>49.97</v>
+      </c>
+      <c r="G2">
+        <v>24.984999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>128.74</v>
-      </c>
-      <c r="F2">
-        <v>37.478000000000002</v>
-      </c>
-      <c r="G2">
-        <v>49.97</v>
-      </c>
-      <c r="H2">
-        <v>24.984999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="D3">
+        <v>140.19399999999999</v>
+      </c>
+      <c r="E3">
+        <v>22.995000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>7.6520000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.8260000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>140.19399999999999</v>
-      </c>
-      <c r="F3">
-        <v>22.995000000000001</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.6520000000000001</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>3.8260000000000001</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="D4">
+        <v>178.23400000000001</v>
+      </c>
+      <c r="E4">
+        <v>29.670999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>9.89</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>9.89</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>178.23400000000001</v>
-      </c>
-      <c r="F4">
-        <v>29.670999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>9.89</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>9.89</v>
-      </c>
-      <c r="M4">
+      <c r="E5">
+        <v>35.292000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>11.763999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>11.763999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>35.292000000000002</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>11.763999999999999</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>11.763999999999999</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+      <c r="D6">
+        <v>400</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>28.341999999999999</v>
       </c>
       <c r="F6">
-        <v>28.341999999999999</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H6">
-        <v>9.4499999999999993</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -674,9 +656,6 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
         <v>4.7249999999999996</v>
       </c>
     </row>
